--- a/template/potem11.xlsx
+++ b/template/potem11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F981EBE7-F21A-514E-81DD-4B6B44D9A2B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123D140B-AACE-8A41-B75D-DF4AC3EBD925}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="4500" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,18 +491,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="32">
@@ -860,169 +854,171 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1381,9 +1377,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:I44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1399,556 +1393,830 @@
     <col min="10" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B11" s="5" t="s">
+    <row r="1" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="G11" s="5" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="9.75" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B13" s="39" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="9.75" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B15" s="10" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="G15" s="10" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" customHeight="1">
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" ht="31.5" customHeight="1">
-      <c r="B18" s="55"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="21" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B21" s="10" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="6.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="G21" s="59" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:10" ht="6" customHeight="1">
-      <c r="B22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B23" s="10" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="6" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="G23" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:10" ht="6" customHeight="1">
-      <c r="B24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="6" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="G25" s="10" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:10" ht="6.75" customHeight="1">
-      <c r="B26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B27" s="10" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="6.75" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="G27" s="10" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B29" s="10" t="s">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:10" ht="6.75" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B31" s="10" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="6.75" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="9"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="33" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B33" s="42" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="30"/>
+      <c r="H33" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B34" s="44" t="s">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="15" t="s">
+      <c r="G34" s="34"/>
+      <c r="H34" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="2:9" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="64"/>
-    </row>
-    <row r="37" spans="2:9" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="2:9" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B38" s="48"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="25" t="s">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="2:9" ht="18" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="67"/>
-    </row>
-    <row r="41" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="2:9" ht="18" customHeight="1">
-      <c r="B42" s="30" t="s">
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
-    </row>
-    <row r="43" spans="2:9" ht="18" customHeight="1">
-      <c r="B43" s="32"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="67"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B44" s="33"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:9" ht="6" customHeight="1"/>
-    <row r="46" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B46" s="10" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="6" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="G46" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" ht="8.25" customHeight="1">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="F47" s="9"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B48" s="10" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="8.25" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="9"/>
-      <c r="H48" s="10" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:26" ht="4.5" customHeight="1"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" ht="4.5" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37" t="s">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="4.5" customHeight="1">
-      <c r="B52" s="38"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="11.25" customHeight="1">
-      <c r="B54" s="38"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="60" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="61" spans="1:26" ht="12.75" customHeight="1"/>
@@ -2897,6 +3165,17 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="D39:I41"/>
     <mergeCell ref="D42:I44"/>
     <mergeCell ref="B34:C34"/>
@@ -2909,17 +3188,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.33888888888888902" right="0.16875000000000001" top="0.33888888888888902" bottom="0.329166666666667" header="0" footer="0"/>

--- a/template/potem11.xlsx
+++ b/template/potem11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123D140B-AACE-8A41-B75D-DF4AC3EBD925}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CD9D7-E198-B243-8FF3-60D063F9568F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,6 +383,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -499,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -850,11 +851,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -871,39 +926,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -912,39 +935,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,63 +962,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1019,6 +976,111 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1377,7 +1439,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1543,16 +1607,16 @@
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
@@ -1569,14 +1633,14 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="2"/>
@@ -1585,50 +1649,50 @@
     </row>
     <row r="16" spans="1:10" ht="23.25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="23.25" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="23.25" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="6.75" customHeight="1">
@@ -1645,18 +1709,18 @@
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="6" customHeight="1">
@@ -1673,14 +1737,14 @@
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -1701,14 +1765,14 @@
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="9"/>
@@ -1729,14 +1793,14 @@
     </row>
     <row r="27" spans="1:10" ht="20.25" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="9"/>
@@ -1745,26 +1809,26 @@
     </row>
     <row r="28" spans="1:10" ht="7.5" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="9"/>
@@ -1773,27 +1837,27 @@
     </row>
     <row r="30" spans="1:10" ht="6.75" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="11"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="28"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
@@ -1811,176 +1875,176 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31" t="s">
+      <c r="G33" s="50"/>
+      <c r="H33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35" t="s">
+      <c r="G34" s="64"/>
+      <c r="H34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="44"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="43"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="67"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="57"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="6" customHeight="1">
@@ -1997,17 +2061,17 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I46" s="9"/>
@@ -2027,15 +2091,15 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="73"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="9"/>
       <c r="F48" s="11"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I48" s="9"/>
@@ -2054,18 +2118,18 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2084,18 +2148,18 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2115,7 +2179,7 @@
     </row>
     <row r="52" spans="1:26" ht="4.5" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="75"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2126,20 +2190,20 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -2159,7 +2223,7 @@
     </row>
     <row r="54" spans="1:26" ht="11.25" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="75"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3165,17 +3229,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="D39:I41"/>
     <mergeCell ref="D42:I44"/>
     <mergeCell ref="B34:C34"/>
@@ -3188,6 +3241,17 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.33888888888888902" right="0.16875000000000001" top="0.33888888888888902" bottom="0.329166666666667" header="0" footer="0"/>
